--- a/data/Ergebnisse - normal.xlsx
+++ b/data/Ergebnisse - normal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\px2030\Code\PSD_opt\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2DA3E0-0D83-4C5D-8BFB-5E2319A4283B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF76500E-AF06-48FB-8566-A3E021921428}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="kernel_opt" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="82">
   <si>
     <t>corr_beta</t>
   </si>
@@ -180,6 +179,99 @@
   </si>
   <si>
     <t>0.62  0.55  0.15</t>
+  </si>
+  <si>
+    <t>2d * 10</t>
+  </si>
+  <si>
+    <t>1  1  0.65</t>
+  </si>
+  <si>
+    <t>0.84  1  0.38</t>
+  </si>
+  <si>
+    <t>0.80  0.39  0.22</t>
+  </si>
+  <si>
+    <t>0.88  0.53  0.22</t>
+  </si>
+  <si>
+    <t>1  1  0.01</t>
+  </si>
+  <si>
+    <t>1   1   0</t>
+  </si>
+  <si>
+    <t>0.67  0.75  0.003</t>
+  </si>
+  <si>
+    <t>0.5  0.5  0.01</t>
+  </si>
+  <si>
+    <t>1  0.49  0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1  1  0 </t>
+  </si>
+  <si>
+    <t>1  1  0</t>
+  </si>
+  <si>
+    <t>0.5  0.42  0.009</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>0.90   0.45  0.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1  0.5  0.2 </t>
+  </si>
+  <si>
+    <t>0.99  0.99  0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1  0.69  0.25  </t>
+  </si>
+  <si>
+    <t>x_50</t>
+  </si>
+  <si>
+    <t>0.81  0.30  0.23</t>
+  </si>
+  <si>
+    <t>0.63  0.61  0.19</t>
+  </si>
+  <si>
+    <t>1  0.40  0.24</t>
+  </si>
+  <si>
+    <t>1  0.59  0.26</t>
+  </si>
+  <si>
+    <t>1  0.64  0.25</t>
+  </si>
+  <si>
+    <t>0.53  0.83  0.14</t>
+  </si>
+  <si>
+    <t>0.95  0.57  0.39</t>
+  </si>
+  <si>
+    <t>0.99  0.56  0.42</t>
+  </si>
+  <si>
+    <t>0.72  0.02  0.11</t>
+  </si>
+  <si>
+    <t>0.64  0.33  0.18</t>
+  </si>
+  <si>
+    <t>0.85  0.62  0.25</t>
+  </si>
+  <si>
+    <t>MSE</t>
   </si>
 </sst>
 </file>
@@ -537,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,8 +653,8 @@
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.28515625" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" customWidth="1"/>
+    <col min="24" max="24" width="10.140625" customWidth="1"/>
     <col min="25" max="25" width="6.7109375" customWidth="1"/>
     <col min="26" max="26" width="4.7109375" customWidth="1"/>
     <col min="27" max="27" width="6.7109375" customWidth="1"/>
@@ -1461,23 +1553,54 @@
         <v>28</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-      <c r="AA11" s="4"/>
-      <c r="AB11" s="4"/>
-      <c r="AC11" s="4"/>
-      <c r="AD11" s="4"/>
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="4"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="4"/>
-      <c r="AI11" s="4"/>
-      <c r="AJ11" s="4"/>
+      <c r="T11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>25</v>
+      </c>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK11" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1525,23 +1648,50 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="8"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
+      <c r="T12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2">
+        <v>54</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE12" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>27.27</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>6.7500000000000001E-5</v>
+      </c>
+      <c r="AI12" s="6">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="8"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
@@ -1589,23 +1739,50 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="8"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="4"/>
-      <c r="W13" s="4"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
-      <c r="Z13" s="4"/>
-      <c r="AA13" s="4"/>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="4"/>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="4"/>
-      <c r="AI13" s="4"/>
-      <c r="AJ13" s="4"/>
+      <c r="T13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="2">
+        <v>25</v>
+      </c>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2">
+        <v>55</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>50</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>27.27</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>6.7500000000000001E-5</v>
+      </c>
+      <c r="AI13" s="6">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="8"/>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -1653,23 +1830,50 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="8"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
-      <c r="AE14" s="4"/>
-      <c r="AF14" s="4"/>
-      <c r="AG14" s="4"/>
-      <c r="AH14" s="4"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
+      <c r="T14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2">
+        <v>56</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>32.85</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>3.6600000000000002E-5</v>
+      </c>
+      <c r="AI14" s="6">
+        <v>0.129</v>
+      </c>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="8"/>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
@@ -1717,23 +1921,50 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="8"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="4"/>
-      <c r="AC15" s="4"/>
-      <c r="AD15" s="4"/>
-      <c r="AE15" s="4"/>
-      <c r="AF15" s="4"/>
-      <c r="AG15" s="4"/>
-      <c r="AH15" s="4"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
+      <c r="T15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U15" s="2">
+        <v>10</v>
+      </c>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2">
+        <v>57</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB15" s="2">
+        <v>200</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>47.55</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>3.4600000000000001E-5</v>
+      </c>
+      <c r="AI15" s="6">
+        <v>0.376</v>
+      </c>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="8"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
@@ -1787,25 +2018,58 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="8"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
-      <c r="V16" s="4"/>
-      <c r="W16" s="4"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
-      <c r="Z16" s="4"/>
-      <c r="AA16" s="4"/>
-      <c r="AB16" s="4"/>
-      <c r="AC16" s="4"/>
-      <c r="AD16" s="4"/>
-      <c r="AE16" s="4"/>
-      <c r="AF16" s="4"/>
-      <c r="AG16" s="4"/>
-      <c r="AH16" s="4"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-    </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U16" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>58</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>400</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>20</v>
+      </c>
+      <c r="AF16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>38.65</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="AI16" s="6">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>7</v>
       </c>
@@ -1853,25 +2117,54 @@
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="4"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
-      <c r="Z17" s="4"/>
-      <c r="AA17" s="4"/>
-      <c r="AB17" s="4"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-    </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2">
+        <v>59</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>800</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE17" s="7">
+        <v>20</v>
+      </c>
+      <c r="AF17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>38.65</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="AI17" s="6">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>31</v>
       </c>
@@ -1897,25 +2190,32 @@
       <c r="Q18" s="8"/>
       <c r="R18" s="8"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
-      <c r="AG18" s="4"/>
-      <c r="AH18" s="4"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-    </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T18" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="9">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="V18" s="9">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>32</v>
       </c>
@@ -1939,25 +2239,30 @@
       <c r="Q19" s="8"/>
       <c r="R19" s="8"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="4"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
-      <c r="Z19" s="4"/>
-      <c r="AA19" s="4"/>
-      <c r="AB19" s="4"/>
-      <c r="AC19" s="4"/>
-      <c r="AD19" s="4"/>
-      <c r="AE19" s="4"/>
-      <c r="AF19" s="4"/>
-      <c r="AG19" s="4"/>
-      <c r="AH19" s="4"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-    </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T19" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="8">
+        <v>5</v>
+      </c>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -1995,7 +2300,7 @@
       <c r="AI20" s="4"/>
       <c r="AJ20" s="4"/>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>0</v>
       </c>
@@ -2043,25 +2348,56 @@
         <v>28</v>
       </c>
       <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="4"/>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="4"/>
-      <c r="AD21" s="4"/>
-      <c r="AE21" s="4"/>
-      <c r="AF21" s="4"/>
-      <c r="AG21" s="4"/>
-      <c r="AH21" s="4"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-    </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="2">
+        <v>25</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>1</v>
       </c>
@@ -2109,25 +2445,52 @@
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="4"/>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
-      <c r="AG22" s="4"/>
-      <c r="AH22" s="4"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-    </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2">
+        <v>60</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE22" s="7">
+        <v>33.9</v>
+      </c>
+      <c r="AF22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>45.47</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>3.1700000000000001E-4</v>
+      </c>
+      <c r="AI22" s="6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="8"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>14</v>
       </c>
@@ -2175,25 +2538,52 @@
       </c>
       <c r="R23" s="8"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="4"/>
-      <c r="AD23" s="4"/>
-      <c r="AE23" s="4"/>
-      <c r="AF23" s="4"/>
-      <c r="AG23" s="4"/>
-      <c r="AH23" s="4"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-    </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U23" s="2">
+        <v>25</v>
+      </c>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>50</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE23" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AF23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>46.22</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="AI23" s="6">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="8"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>3</v>
       </c>
@@ -2241,25 +2631,52 @@
       </c>
       <c r="R24" s="8"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="4"/>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="4"/>
-      <c r="AD24" s="4"/>
-      <c r="AE24" s="4"/>
-      <c r="AF24" s="4"/>
-      <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-    </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2">
+        <v>62</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="7">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AF24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>46.22</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>1.5899999999999999E-4</v>
+      </c>
+      <c r="AI24" s="6">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="8"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -2307,25 +2724,52 @@
       </c>
       <c r="R25" s="8"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="4"/>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="4"/>
-      <c r="AD25" s="4"/>
-      <c r="AE25" s="4"/>
-      <c r="AF25" s="4"/>
-      <c r="AG25" s="4"/>
-      <c r="AH25" s="4"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-    </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U25" s="2">
+        <v>10</v>
+      </c>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB25" s="2">
+        <v>200</v>
+      </c>
+      <c r="AC25" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE25" s="7">
+        <v>23</v>
+      </c>
+      <c r="AF25" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG25" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>1.13E-4</v>
+      </c>
+      <c r="AI25" s="6">
+        <v>0.185</v>
+      </c>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="8"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>5</v>
       </c>
@@ -2379,25 +2823,58 @@
       </c>
       <c r="R26" s="8"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="4"/>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-    </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="V26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>64</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB26" s="2">
+        <v>400</v>
+      </c>
+      <c r="AC26" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE26" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AF26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG26" s="2">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>1.02E-4</v>
+      </c>
+      <c r="AI26" s="6">
+        <v>0.255</v>
+      </c>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2447,25 +2924,54 @@
       </c>
       <c r="R27" s="8"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="4"/>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="4"/>
-      <c r="AD27" s="4"/>
-      <c r="AE27" s="4"/>
-      <c r="AF27" s="4"/>
-      <c r="AG27" s="4"/>
-      <c r="AH27" s="4"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-    </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V27" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2">
+        <v>65</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB27" s="2">
+        <v>800</v>
+      </c>
+      <c r="AC27" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE27" s="7">
+        <v>20</v>
+      </c>
+      <c r="AF27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG27" s="2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>8.1100000000000006E-5</v>
+      </c>
+      <c r="AI27" s="6">
+        <v>0.24199999999999999</v>
+      </c>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>31</v>
       </c>
@@ -2478,39 +2984,70 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
+      <c r="F28" s="8">
+        <v>41</v>
+      </c>
+      <c r="G28" s="8">
+        <v>5</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1600</v>
+      </c>
+      <c r="J28" s="8">
+        <v>4</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L28" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28" s="2">
+        <v>42.4</v>
+      </c>
+      <c r="O28" s="3">
+        <v>6.4499999999999996E-4</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0.215</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>6547</v>
+      </c>
       <c r="R28" s="8"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U28" s="9">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="V28" s="9">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>32</v>
       </c>
@@ -2534,25 +3071,30 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="4"/>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="4"/>
-      <c r="AD29" s="4"/>
-      <c r="AE29" s="4"/>
-      <c r="AF29" s="4"/>
-      <c r="AG29" s="4"/>
-      <c r="AH29" s="4"/>
-      <c r="AI29" s="4"/>
-      <c r="AJ29" s="4"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T29" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U29" s="8">
+        <v>5</v>
+      </c>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -2590,349 +3132,766 @@
       <c r="AI30" s="4"/>
       <c r="AJ30" s="4"/>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="4"/>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="4"/>
-      <c r="AD31" s="4"/>
-      <c r="AE31" s="4"/>
-      <c r="AF31" s="4"/>
-      <c r="AG31" s="4"/>
-      <c r="AH31" s="4"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
+      <c r="T31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="2">
+        <v>25</v>
+      </c>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AD31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI31" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AJ31" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="11">
+        <v>42</v>
+      </c>
+      <c r="G32" s="2">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2">
+        <v>25</v>
+      </c>
+      <c r="J32" s="2">
+        <v>4</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L32" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="O32" s="3">
+        <v>2.66E-3</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0.996</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="8"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="4"/>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="4"/>
-      <c r="AD32" s="4"/>
-      <c r="AE32" s="4"/>
-      <c r="AF32" s="4"/>
-      <c r="AG32" s="4"/>
-      <c r="AH32" s="4"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
+      <c r="T32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2">
+        <v>66</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB32" s="2">
+        <v>25</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE32" s="7">
+        <v>50</v>
+      </c>
+      <c r="AF32" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>75.209999999999994</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>6.5799999999999995E-4</v>
+      </c>
+      <c r="AI32" s="6">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="8"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="2">
+        <v>25</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="11">
+        <v>43</v>
+      </c>
+      <c r="G33" s="2">
+        <v>5</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="2">
+        <v>50</v>
+      </c>
+      <c r="J33" s="2">
+        <v>4</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N33" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="O33" s="3">
+        <v>2.66E-3</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0.996</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="8"/>
       <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
-      <c r="V33" s="4"/>
-      <c r="W33" s="4"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="4"/>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="4"/>
-      <c r="AD33" s="4"/>
-      <c r="AE33" s="4"/>
-      <c r="AF33" s="4"/>
-      <c r="AG33" s="4"/>
-      <c r="AH33" s="4"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
+      <c r="T33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U33" s="2">
+        <v>25</v>
+      </c>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2">
+        <v>67</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB33" s="2">
+        <v>50</v>
+      </c>
+      <c r="AC33" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>11.8</v>
+      </c>
+      <c r="AF33" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>22.59</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>5.2800000000000004E-4</v>
+      </c>
+      <c r="AI33" s="6">
+        <v>0.45200000000000001</v>
+      </c>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="8"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="11">
+        <v>44</v>
+      </c>
+      <c r="G34" s="2">
+        <v>5</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="2">
+        <v>100</v>
+      </c>
+      <c r="J34" s="2">
+        <v>4</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L34" s="2">
+        <v>12.3</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="2">
+        <v>32.5</v>
+      </c>
+      <c r="O34" s="3">
+        <v>2.66E-3</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0.996</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="8"/>
       <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="4"/>
-      <c r="AD34" s="4"/>
-      <c r="AE34" s="4"/>
-      <c r="AF34" s="4"/>
-      <c r="AG34" s="4"/>
-      <c r="AH34" s="4"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
+      <c r="T34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2">
+        <v>68</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB34" s="2">
+        <v>100</v>
+      </c>
+      <c r="AC34" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD34" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="AF34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>23.32</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>4.5899999999999999E-4</v>
+      </c>
+      <c r="AI34" s="6">
+        <v>0.495</v>
+      </c>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="8"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="2">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="11">
+        <v>45</v>
+      </c>
+      <c r="G35" s="2">
+        <v>5</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="2">
+        <v>200</v>
+      </c>
+      <c r="J35" s="2">
+        <v>4</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L35" s="2">
+        <v>14.9</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N35" s="2">
+        <v>33</v>
+      </c>
+      <c r="O35" s="3">
+        <v>1.5200000000000001E-3</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="8"/>
       <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="4"/>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="4"/>
-      <c r="AD35" s="4"/>
-      <c r="AE35" s="4"/>
-      <c r="AF35" s="4"/>
-      <c r="AG35" s="4"/>
-      <c r="AH35" s="4"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
+      <c r="T35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="U35" s="2">
+        <v>10</v>
+      </c>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2">
+        <v>69</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB35" s="2">
+        <v>200</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD35" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE35" s="7">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="AF35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>29.9</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>3.2299999999999999E-4</v>
+      </c>
+      <c r="AI35" s="6">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="8"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="11">
+        <v>46</v>
+      </c>
+      <c r="G36" s="2">
+        <v>5</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="2">
+        <v>400</v>
+      </c>
+      <c r="J36" s="2">
+        <v>4</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L36" s="2">
+        <v>25.2</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N36" s="2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="O36" s="3">
+        <v>8.9800000000000004E-4</v>
+      </c>
+      <c r="P36" s="6">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
       <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="4"/>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="4"/>
-      <c r="AD36" s="4"/>
-      <c r="AE36" s="4"/>
-      <c r="AF36" s="4"/>
-      <c r="AG36" s="4"/>
-      <c r="AH36" s="4"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
+      <c r="T36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U36" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="W36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB36" s="2">
+        <v>400</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE36" s="7">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="AF36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>38.82</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>1.8900000000000001E-4</v>
+      </c>
+      <c r="AI36" s="6">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="11">
+        <v>47</v>
+      </c>
+      <c r="G37" s="2">
+        <v>5</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2">
+        <v>800</v>
+      </c>
+      <c r="J37" s="2">
+        <v>4</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L37" s="2">
+        <v>22.8</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N37" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="O37" s="3">
+        <v>8.4000000000000003E-4</v>
+      </c>
+      <c r="P37" s="6">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
       <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="4"/>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="4"/>
-      <c r="AD37" s="4"/>
-      <c r="AE37" s="4"/>
-      <c r="AF37" s="4"/>
-      <c r="AG37" s="4"/>
-      <c r="AH37" s="4"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="4"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
+      <c r="T37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>5</v>
+      </c>
+      <c r="AA37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB37" s="2">
+        <v>800</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>4</v>
+      </c>
+      <c r="AD37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE37" s="7">
+        <v>22.4</v>
+      </c>
+      <c r="AF37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>38.25</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>1.2E-4</v>
+      </c>
+      <c r="AI37" s="6">
+        <v>0.157</v>
+      </c>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="9">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="C38" s="12">
+        <f>0.00000029*3</f>
+        <v>8.6999999999999993E-7</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
       <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="4"/>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="4"/>
-      <c r="AD38" s="4"/>
-      <c r="AE38" s="4"/>
-      <c r="AF38" s="4"/>
-      <c r="AG38" s="4"/>
-      <c r="AH38" s="4"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39" s="4"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="5"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
-      <c r="Q39" s="4"/>
-      <c r="R39" s="4"/>
+      <c r="T38" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="U38" s="9">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="V38" s="12">
+        <f>0.00000029*3</f>
+        <v>8.6999999999999993E-7</v>
+      </c>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="8">
+        <v>5</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
       <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="4"/>
-      <c r="AA39" s="4"/>
-      <c r="AB39" s="4"/>
-      <c r="AC39" s="4"/>
-      <c r="AD39" s="4"/>
-      <c r="AE39" s="4"/>
-      <c r="AF39" s="4"/>
-      <c r="AG39" s="4"/>
-      <c r="AH39" s="4"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="T39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39" s="8">
+        <v>5</v>
+      </c>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="8"/>
+      <c r="Y39" s="8"/>
+      <c r="Z39" s="8"/>
+      <c r="AA39" s="8"/>
+      <c r="AB39" s="8"/>
+      <c r="AC39" s="8"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="8"/>
+      <c r="AF39" s="8"/>
+      <c r="AG39" s="8"/>
+      <c r="AH39" s="8"/>
+      <c r="AI39" s="8"/>
+      <c r="AJ39" s="8"/>
+      <c r="AK39" s="8"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -2970,25 +3929,55 @@
       <c r="AI40" s="4"/>
       <c r="AJ40" s="4"/>
     </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="4"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="2">
+        <v>25</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L41" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="S41" s="4"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
@@ -3008,25 +3997,51 @@
       <c r="AI41" s="4"/>
       <c r="AJ41" s="4"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>42</v>
+      </c>
+      <c r="G42" s="2">
+        <v>5</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="2">
+        <v>25</v>
+      </c>
+      <c r="J42" s="2">
+        <v>4</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="7">
+        <v>34</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N42" s="2">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="O42" s="3">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="P42" s="6">
+        <v>0.34</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="8"/>
       <c r="S42" s="4"/>
       <c r="T42" s="4"/>
       <c r="U42" s="4"/>
@@ -3046,25 +4061,51 @@
       <c r="AI42" s="4"/>
       <c r="AJ42" s="4"/>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" s="2">
+        <v>25</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2">
+        <v>43</v>
+      </c>
+      <c r="G43" s="2">
+        <v>5</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="2">
+        <v>50</v>
+      </c>
+      <c r="J43" s="2">
+        <v>4</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L43" s="7">
+        <v>20.9</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" s="2">
+        <v>41.8</v>
+      </c>
+      <c r="O43" s="3">
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="8"/>
       <c r="S43" s="4"/>
       <c r="T43" s="4"/>
       <c r="U43" s="4"/>
@@ -3084,25 +4125,51 @@
       <c r="AI43" s="4"/>
       <c r="AJ43" s="4"/>
     </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-      <c r="O44" s="4"/>
-      <c r="P44" s="4"/>
-      <c r="Q44" s="4"/>
-      <c r="R44" s="4"/>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2">
+        <v>44</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="2">
+        <v>100</v>
+      </c>
+      <c r="J44" s="2">
+        <v>4</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N44" s="2">
+        <v>50.2</v>
+      </c>
+      <c r="O44" s="3">
+        <v>7.4399999999999998E-4</v>
+      </c>
+      <c r="P44" s="6">
+        <v>0.251</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="8"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
       <c r="U44" s="4"/>
@@ -3122,25 +4189,51 @@
       <c r="AI44" s="4"/>
       <c r="AJ44" s="4"/>
     </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="4"/>
-      <c r="Q45" s="4"/>
-      <c r="R45" s="4"/>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="2">
+        <v>10</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2">
+        <v>45</v>
+      </c>
+      <c r="G45" s="2">
+        <v>5</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="2">
+        <v>200</v>
+      </c>
+      <c r="J45" s="2">
+        <v>4</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L45" s="7">
+        <v>25.1</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="N45" s="2">
+        <v>50.2</v>
+      </c>
+      <c r="O45" s="3">
+        <v>7.4399999999999998E-4</v>
+      </c>
+      <c r="P45" s="6">
+        <v>0.251</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="8"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
       <c r="U45" s="4"/>
@@ -3160,25 +4253,57 @@
       <c r="AI45" s="4"/>
       <c r="AJ45" s="4"/>
     </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F46" s="2">
+        <v>46</v>
+      </c>
+      <c r="G46" s="2">
+        <v>5</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="2">
+        <v>400</v>
+      </c>
+      <c r="J46" s="2">
+        <v>4</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N46" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="O46" s="3">
+        <v>7.3099999999999999E-4</v>
+      </c>
+      <c r="P46" s="6">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
       <c r="S46" s="4"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
@@ -3198,25 +4323,53 @@
       <c r="AI46" s="4"/>
       <c r="AJ46" s="4"/>
     </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="4"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="4"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2">
+        <v>47</v>
+      </c>
+      <c r="G47" s="2">
+        <v>5</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2">
+        <v>800</v>
+      </c>
+      <c r="J47" s="2">
+        <v>4</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L47" s="7">
+        <v>37.5</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N47" s="2">
+        <v>53.5</v>
+      </c>
+      <c r="O47" s="3">
+        <v>7.3099999999999999E-4</v>
+      </c>
+      <c r="P47" s="6">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
       <c r="S47" s="4"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
@@ -3236,25 +4389,33 @@
       <c r="AI47" s="4"/>
       <c r="AJ47" s="4"/>
     </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="4"/>
-      <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
-      <c r="R48" s="4"/>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="9">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="C48" s="9">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
       <c r="S48" s="4"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
@@ -3275,24 +4436,28 @@
       <c r="AJ48" s="4"/>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="5"/>
-      <c r="N49" s="4"/>
-      <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
-      <c r="R49" s="4"/>
+      <c r="A49" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="8">
+        <v>5</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
       <c r="S49" s="4"/>
       <c r="T49" s="4"/>
       <c r="U49" s="4"/>
@@ -3351,24 +4516,54 @@
       <c r="AJ50" s="4"/>
     </row>
     <row r="51" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="5"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" s="2">
+        <v>25</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q51" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="S51" s="4"/>
       <c r="T51" s="4"/>
       <c r="U51" s="4"/>
@@ -3389,24 +4584,50 @@
       <c r="AJ51" s="4"/>
     </row>
     <row r="52" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
+      <c r="A52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2">
+        <v>48</v>
+      </c>
+      <c r="G52" s="2">
+        <v>5</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="2">
+        <v>25</v>
+      </c>
+      <c r="J52" s="2">
+        <v>4</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="7">
+        <v>15.9</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N52" s="2">
+        <v>23.68</v>
+      </c>
+      <c r="O52" s="3">
+        <v>9.6100000000000005E-4</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="8"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="4"/>
@@ -3427,24 +4648,50 @@
       <c r="AJ52" s="4"/>
     </row>
     <row r="53" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
+      <c r="A53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="2">
+        <v>25</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2">
+        <v>49</v>
+      </c>
+      <c r="G53" s="2">
+        <v>5</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="2">
+        <v>50</v>
+      </c>
+      <c r="J53" s="2">
+        <v>4</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L53" s="7">
+        <v>15.9</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="N53" s="2">
+        <v>23.68</v>
+      </c>
+      <c r="O53" s="3">
+        <v>9.6100000000000005E-4</v>
+      </c>
+      <c r="P53" s="6">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="8"/>
       <c r="S53" s="4"/>
       <c r="T53" s="4"/>
       <c r="U53" s="4"/>
@@ -3465,24 +4712,50 @@
       <c r="AJ53" s="4"/>
     </row>
     <row r="54" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="5"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
+      <c r="A54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2">
+        <v>50</v>
+      </c>
+      <c r="G54" s="2">
+        <v>5</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="2">
+        <v>100</v>
+      </c>
+      <c r="J54" s="2">
+        <v>4</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="N54" s="2">
+        <v>26.31</v>
+      </c>
+      <c r="O54" s="3">
+        <v>6.7900000000000002E-4</v>
+      </c>
+      <c r="P54" s="6">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="8"/>
       <c r="S54" s="4"/>
       <c r="T54" s="4"/>
       <c r="U54" s="4"/>
@@ -3503,24 +4776,50 @@
       <c r="AJ54" s="4"/>
     </row>
     <row r="55" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
+      <c r="A55" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B55" s="2">
+        <v>10</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2">
+        <v>51</v>
+      </c>
+      <c r="G55" s="2">
+        <v>5</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="2">
+        <v>200</v>
+      </c>
+      <c r="J55" s="2">
+        <v>4</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L55" s="7">
+        <v>13.2</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="N55" s="2">
+        <v>26.31</v>
+      </c>
+      <c r="O55" s="3">
+        <v>6.7900000000000002E-4</v>
+      </c>
+      <c r="P55" s="6">
+        <v>0.86799999999999999</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="8"/>
       <c r="S55" s="4"/>
       <c r="T55" s="4"/>
       <c r="U55" s="4"/>
@@ -3541,24 +4840,56 @@
       <c r="AJ55" s="4"/>
     </row>
     <row r="56" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="5"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
+      <c r="A56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F56" s="2">
+        <v>52</v>
+      </c>
+      <c r="G56" s="2">
+        <v>5</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="2">
+        <v>400</v>
+      </c>
+      <c r="J56" s="2">
+        <v>4</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L56" s="7">
+        <v>27.9</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N56" s="2">
+        <v>26.05</v>
+      </c>
+      <c r="O56" s="3">
+        <v>6.5899999999999997E-4</v>
+      </c>
+      <c r="P56" s="6">
+        <v>0.104</v>
+      </c>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
       <c r="S56" s="4"/>
       <c r="T56" s="4"/>
       <c r="U56" s="4"/>
@@ -3579,24 +4910,52 @@
       <c r="AJ56" s="4"/>
     </row>
     <row r="57" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
+      <c r="A57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2">
+        <v>53</v>
+      </c>
+      <c r="G57" s="2">
+        <v>5</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="2">
+        <v>800</v>
+      </c>
+      <c r="J57" s="2">
+        <v>4</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L57" s="7">
+        <v>27.9</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N57" s="2">
+        <v>26.05</v>
+      </c>
+      <c r="O57" s="3">
+        <v>6.5899999999999997E-4</v>
+      </c>
+      <c r="P57" s="6">
+        <v>0.104</v>
+      </c>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
       <c r="S57" s="4"/>
       <c r="T57" s="4"/>
       <c r="U57" s="4"/>
@@ -3617,24 +4976,32 @@
       <c r="AJ57" s="4"/>
     </row>
     <row r="58" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="5"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
+      <c r="A58" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="9">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="C58" s="9">
+        <v>2.8999999999999998E-7</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
       <c r="S58" s="4"/>
       <c r="T58" s="4"/>
       <c r="U58" s="4"/>
@@ -3655,24 +5022,28 @@
       <c r="AJ58" s="4"/>
     </row>
     <row r="59" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="R59" s="4"/>
+      <c r="A59" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B59" s="8">
+        <v>5</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="8"/>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="8"/>
       <c r="S59" s="4"/>
       <c r="T59" s="4"/>
       <c r="U59" s="4"/>
